--- a/superMarketInvoicingManage/src/main/env/doc/报表统计模板.xlsx
+++ b/superMarketInvoicingManage/src/main/env/doc/报表统计模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="统计报表" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,9 +187,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,145 +485,146 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="9" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>120101212</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1201000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1200</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>5000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>500</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>200</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>900</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>120101213</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1201000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1900</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>15000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1500</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1200</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>1900</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>120101214</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1201000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>10200</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>5090</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>505</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>209</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>901</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>16905</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -636,123 +637,123 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>120101212</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1201000</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>120101213</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1201000</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>15000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>120101214</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1201000</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>10200</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>5090</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>505</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>209</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>901</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>16905</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -762,83 +763,83 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>120101212</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1201000</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>5000</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>120101213</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1201000</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1900</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>15000</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>120101214</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1201000</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>10200</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>5090</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>505</v>
       </c>
     </row>
